--- a/110_Analyses_Données/Ex_12_13_14.xlsx
+++ b/110_Analyses_Données/Ex_12_13_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F785005-40B3-47D6-B187-5A9FF8A2C140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3927BDB5-65CC-4FA7-BE0E-88D51147B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Données!$A$1:$L$557</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Données!$C$262:$C$557</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Données!$C$2:$C$557</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Données!$J$2:$J$557</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Données!$C$2:$C$557</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Données!$J$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Données!$J$2:$J$557</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Données!$K$1:$K$261</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Données!$K$262:$K$557</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Données!$C$2:$C$557</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Données!$I$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Données!$I$2:$I$557</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Données!$C$2:$C$557</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Données!$K$2:$K$557</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Données!$C$2:$C$557</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Données!$I$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Données!$I$2:$I$557</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Données!$C$2:$C$557</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Données!$J$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Données!$J$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Données!$J$2:$J$557</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -406,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -421,6 +415,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -429,15 +435,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +457,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.4</cx:f>
@@ -504,10 +501,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -518,7 +515,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E63A11C1-F98A-4A28-BB7F-B47BD6637DC0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Part variable managériale</cx:v>
             </cx:txData>
           </cx:tx>
@@ -548,10 +545,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -562,7 +559,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{22C908C3-F1C6-4C8E-B39D-115BEB9B37C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Part variable commerciale</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2301,8 +2298,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14631521" y="1427909"/>
-              <a:ext cx="4911539" cy="2743200"/>
+              <a:off x="14555881" y="1425668"/>
+              <a:ext cx="4757458" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2379,8 +2376,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14640484" y="6007474"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="14564844" y="6005233"/>
+              <a:ext cx="4417919" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2457,8 +2454,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14651690" y="10792385"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="14576050" y="10790144"/>
+              <a:ext cx="4417919" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11706,445 +11703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36D5774F-5174-42C0-BC4B-7F85FE5AF945}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M51:Q54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="91">
-        <item x="1"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="33"/>
-        <item x="0"/>
-        <item x="64"/>
-        <item x="79"/>
-        <item x="6"/>
-        <item x="81"/>
-        <item x="14"/>
-        <item x="62"/>
-        <item x="39"/>
-        <item x="30"/>
-        <item x="5"/>
-        <item x="31"/>
-        <item x="50"/>
-        <item x="68"/>
-        <item x="2"/>
-        <item x="59"/>
-        <item x="52"/>
-        <item x="63"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="7"/>
-        <item x="71"/>
-        <item x="85"/>
-        <item x="65"/>
-        <item x="18"/>
-        <item x="61"/>
-        <item x="3"/>
-        <item x="74"/>
-        <item x="37"/>
-        <item x="87"/>
-        <item x="27"/>
-        <item x="70"/>
-        <item x="58"/>
-        <item x="23"/>
-        <item x="10"/>
-        <item x="75"/>
-        <item x="40"/>
-        <item x="53"/>
-        <item x="67"/>
-        <item x="80"/>
-        <item x="48"/>
-        <item x="19"/>
-        <item x="88"/>
-        <item x="26"/>
-        <item x="49"/>
-        <item x="73"/>
-        <item x="32"/>
-        <item x="51"/>
-        <item x="60"/>
-        <item x="77"/>
-        <item x="29"/>
-        <item x="46"/>
-        <item x="72"/>
-        <item x="57"/>
-        <item x="69"/>
-        <item x="56"/>
-        <item x="86"/>
-        <item x="21"/>
-        <item x="8"/>
-        <item x="28"/>
-        <item x="55"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="15"/>
-        <item x="20"/>
-        <item x="84"/>
-        <item x="76"/>
-        <item x="45"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="35"/>
-        <item x="78"/>
-        <item x="83"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="89"/>
-        <item x="38"/>
-        <item x="44"/>
-        <item x="17"/>
-        <item x="34"/>
-        <item x="22"/>
-        <item x="82"/>
-        <item x="54"/>
-        <item x="42"/>
-        <item x="25"/>
-        <item x="66"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Moyenne Part variable commerciale" fld="9" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Max Part variable commerciale" fld="9" subtotal="max" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Min Part variable commerciale" fld="9" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Ecart Part variable commerciale" fld="9" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{518211AA-7DCF-4E80-A974-B03F5E3C09D6}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M26:Q29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="195">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="95"/>
-        <item x="26"/>
-        <item x="1"/>
-        <item x="167"/>
-        <item x="128"/>
-        <item x="185"/>
-        <item x="149"/>
-        <item x="169"/>
-        <item x="192"/>
-        <item x="136"/>
-        <item x="108"/>
-        <item x="69"/>
-        <item x="35"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="142"/>
-        <item x="131"/>
-        <item x="145"/>
-        <item x="159"/>
-        <item x="116"/>
-        <item x="158"/>
-        <item x="125"/>
-        <item x="140"/>
-        <item x="43"/>
-        <item x="74"/>
-        <item x="187"/>
-        <item x="109"/>
-        <item x="190"/>
-        <item x="184"/>
-        <item x="23"/>
-        <item x="80"/>
-        <item x="188"/>
-        <item x="5"/>
-        <item x="153"/>
-        <item x="18"/>
-        <item x="31"/>
-        <item x="130"/>
-        <item x="104"/>
-        <item x="139"/>
-        <item x="98"/>
-        <item x="110"/>
-        <item x="92"/>
-        <item x="41"/>
-        <item x="119"/>
-        <item x="48"/>
-        <item x="24"/>
-        <item x="57"/>
-        <item x="133"/>
-        <item x="137"/>
-        <item x="33"/>
-        <item x="25"/>
-        <item x="65"/>
-        <item x="111"/>
-        <item x="89"/>
-        <item x="10"/>
-        <item x="191"/>
-        <item x="165"/>
-        <item x="11"/>
-        <item x="54"/>
-        <item x="32"/>
-        <item x="40"/>
-        <item x="113"/>
-        <item x="152"/>
-        <item x="42"/>
-        <item x="118"/>
-        <item x="160"/>
-        <item x="91"/>
-        <item x="49"/>
-        <item x="64"/>
-        <item x="173"/>
-        <item x="144"/>
-        <item x="56"/>
-        <item x="53"/>
-        <item x="22"/>
-        <item x="76"/>
-        <item x="189"/>
-        <item x="132"/>
-        <item x="168"/>
-        <item x="13"/>
-        <item x="155"/>
-        <item x="102"/>
-        <item x="8"/>
-        <item x="175"/>
-        <item x="39"/>
-        <item x="73"/>
-        <item x="4"/>
-        <item x="143"/>
-        <item x="17"/>
-        <item x="162"/>
-        <item x="156"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="178"/>
-        <item x="138"/>
-        <item x="106"/>
-        <item x="112"/>
-        <item x="161"/>
-        <item x="15"/>
-        <item x="134"/>
-        <item x="81"/>
-        <item x="122"/>
-        <item x="107"/>
-        <item x="100"/>
-        <item x="141"/>
-        <item x="146"/>
-        <item x="181"/>
-        <item x="30"/>
-        <item x="170"/>
-        <item x="51"/>
-        <item x="103"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="105"/>
-        <item x="166"/>
-        <item x="183"/>
-        <item x="154"/>
-        <item x="148"/>
-        <item x="117"/>
-        <item x="12"/>
-        <item x="126"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="164"/>
-        <item x="88"/>
-        <item x="186"/>
-        <item x="182"/>
-        <item x="127"/>
-        <item x="66"/>
-        <item x="82"/>
-        <item x="58"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="52"/>
-        <item x="72"/>
-        <item x="6"/>
-        <item x="50"/>
-        <item x="193"/>
-        <item x="27"/>
-        <item x="174"/>
-        <item x="61"/>
-        <item x="115"/>
-        <item x="16"/>
-        <item x="171"/>
-        <item x="135"/>
-        <item x="94"/>
-        <item x="123"/>
-        <item x="101"/>
-        <item x="55"/>
-        <item x="90"/>
-        <item x="157"/>
-        <item x="70"/>
-        <item x="180"/>
-        <item x="36"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="150"/>
-        <item x="124"/>
-        <item x="176"/>
-        <item x="93"/>
-        <item x="87"/>
-        <item x="99"/>
-        <item x="179"/>
-        <item x="34"/>
-        <item x="77"/>
-        <item x="147"/>
-        <item x="9"/>
-        <item x="96"/>
-        <item x="172"/>
-        <item x="59"/>
-        <item x="47"/>
-        <item x="120"/>
-        <item x="163"/>
-        <item x="78"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="7"/>
-        <item x="79"/>
-        <item x="14"/>
-        <item x="37"/>
-        <item x="75"/>
-        <item x="177"/>
-        <item x="114"/>
-        <item x="45"/>
-        <item x="121"/>
-        <item x="85"/>
-        <item x="20"/>
-        <item x="129"/>
-        <item x="46"/>
-        <item x="151"/>
-        <item x="71"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Moyenne Part variable managériale" fld="8" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Max Part variable managériale" fld="8" subtotal="max" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Min Part variable managériale" fld="8" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
-    <dataField name="Ecart Part variable managériale" fld="8" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF98E4E2-A86A-43B9-915F-72F555160FD0}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF98E4E2-A86A-43B9-915F-72F555160FD0}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M2:Q5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -13406,6 +12965,444 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36D5774F-5174-42C0-BC4B-7F85FE5AF945}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M51:Q54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="91">
+        <item x="1"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="64"/>
+        <item x="79"/>
+        <item x="6"/>
+        <item x="81"/>
+        <item x="14"/>
+        <item x="62"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="50"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="52"/>
+        <item x="63"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="7"/>
+        <item x="71"/>
+        <item x="85"/>
+        <item x="65"/>
+        <item x="18"/>
+        <item x="61"/>
+        <item x="3"/>
+        <item x="74"/>
+        <item x="37"/>
+        <item x="87"/>
+        <item x="27"/>
+        <item x="70"/>
+        <item x="58"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="75"/>
+        <item x="40"/>
+        <item x="53"/>
+        <item x="67"/>
+        <item x="80"/>
+        <item x="48"/>
+        <item x="19"/>
+        <item x="88"/>
+        <item x="26"/>
+        <item x="49"/>
+        <item x="73"/>
+        <item x="32"/>
+        <item x="51"/>
+        <item x="60"/>
+        <item x="77"/>
+        <item x="29"/>
+        <item x="46"/>
+        <item x="72"/>
+        <item x="57"/>
+        <item x="69"/>
+        <item x="56"/>
+        <item x="86"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="55"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="84"/>
+        <item x="76"/>
+        <item x="45"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="35"/>
+        <item x="78"/>
+        <item x="83"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="89"/>
+        <item x="38"/>
+        <item x="44"/>
+        <item x="17"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="82"/>
+        <item x="54"/>
+        <item x="42"/>
+        <item x="25"/>
+        <item x="66"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Moyenne Part variable commerciale" fld="9" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Max Part variable commerciale" fld="9" subtotal="max" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Min Part variable commerciale" fld="9" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Ecart Part variable commerciale" fld="9" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{518211AA-7DCF-4E80-A974-B03F5E3C09D6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M26:Q29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="195">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="95"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="167"/>
+        <item x="128"/>
+        <item x="185"/>
+        <item x="149"/>
+        <item x="169"/>
+        <item x="192"/>
+        <item x="136"/>
+        <item x="108"/>
+        <item x="69"/>
+        <item x="35"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="142"/>
+        <item x="131"/>
+        <item x="145"/>
+        <item x="159"/>
+        <item x="116"/>
+        <item x="158"/>
+        <item x="125"/>
+        <item x="140"/>
+        <item x="43"/>
+        <item x="74"/>
+        <item x="187"/>
+        <item x="109"/>
+        <item x="190"/>
+        <item x="184"/>
+        <item x="23"/>
+        <item x="80"/>
+        <item x="188"/>
+        <item x="5"/>
+        <item x="153"/>
+        <item x="18"/>
+        <item x="31"/>
+        <item x="130"/>
+        <item x="104"/>
+        <item x="139"/>
+        <item x="98"/>
+        <item x="110"/>
+        <item x="92"/>
+        <item x="41"/>
+        <item x="119"/>
+        <item x="48"/>
+        <item x="24"/>
+        <item x="57"/>
+        <item x="133"/>
+        <item x="137"/>
+        <item x="33"/>
+        <item x="25"/>
+        <item x="65"/>
+        <item x="111"/>
+        <item x="89"/>
+        <item x="10"/>
+        <item x="191"/>
+        <item x="165"/>
+        <item x="11"/>
+        <item x="54"/>
+        <item x="32"/>
+        <item x="40"/>
+        <item x="113"/>
+        <item x="152"/>
+        <item x="42"/>
+        <item x="118"/>
+        <item x="160"/>
+        <item x="91"/>
+        <item x="49"/>
+        <item x="64"/>
+        <item x="173"/>
+        <item x="144"/>
+        <item x="56"/>
+        <item x="53"/>
+        <item x="22"/>
+        <item x="76"/>
+        <item x="189"/>
+        <item x="132"/>
+        <item x="168"/>
+        <item x="13"/>
+        <item x="155"/>
+        <item x="102"/>
+        <item x="8"/>
+        <item x="175"/>
+        <item x="39"/>
+        <item x="73"/>
+        <item x="4"/>
+        <item x="143"/>
+        <item x="17"/>
+        <item x="162"/>
+        <item x="156"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="178"/>
+        <item x="138"/>
+        <item x="106"/>
+        <item x="112"/>
+        <item x="161"/>
+        <item x="15"/>
+        <item x="134"/>
+        <item x="81"/>
+        <item x="122"/>
+        <item x="107"/>
+        <item x="100"/>
+        <item x="141"/>
+        <item x="146"/>
+        <item x="181"/>
+        <item x="30"/>
+        <item x="170"/>
+        <item x="51"/>
+        <item x="103"/>
+        <item x="86"/>
+        <item x="97"/>
+        <item x="105"/>
+        <item x="166"/>
+        <item x="183"/>
+        <item x="154"/>
+        <item x="148"/>
+        <item x="117"/>
+        <item x="12"/>
+        <item x="126"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="164"/>
+        <item x="88"/>
+        <item x="186"/>
+        <item x="182"/>
+        <item x="127"/>
+        <item x="66"/>
+        <item x="82"/>
+        <item x="58"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="52"/>
+        <item x="72"/>
+        <item x="6"/>
+        <item x="50"/>
+        <item x="193"/>
+        <item x="27"/>
+        <item x="174"/>
+        <item x="61"/>
+        <item x="115"/>
+        <item x="16"/>
+        <item x="171"/>
+        <item x="135"/>
+        <item x="94"/>
+        <item x="123"/>
+        <item x="101"/>
+        <item x="55"/>
+        <item x="90"/>
+        <item x="157"/>
+        <item x="70"/>
+        <item x="180"/>
+        <item x="36"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="150"/>
+        <item x="124"/>
+        <item x="176"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="99"/>
+        <item x="179"/>
+        <item x="34"/>
+        <item x="77"/>
+        <item x="147"/>
+        <item x="9"/>
+        <item x="96"/>
+        <item x="172"/>
+        <item x="59"/>
+        <item x="47"/>
+        <item x="120"/>
+        <item x="163"/>
+        <item x="78"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="7"/>
+        <item x="79"/>
+        <item x="14"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="177"/>
+        <item x="114"/>
+        <item x="45"/>
+        <item x="121"/>
+        <item x="85"/>
+        <item x="20"/>
+        <item x="129"/>
+        <item x="46"/>
+        <item x="151"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Moyenne Part variable managériale" fld="8" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Max Part variable managériale" fld="8" subtotal="max" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Min Part variable managériale" fld="8" subtotal="min" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Ecart Part variable managériale" fld="8" subtotal="stdDev" baseField="2" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -13695,8 +13692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T557"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J205" sqref="J2:J205"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -14147,7 +14144,7 @@
       <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14452,10 +14449,10 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2">
@@ -14494,8 +14491,8 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2">
@@ -14534,8 +14531,8 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="2">
@@ -14574,8 +14571,8 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="2">
@@ -14614,8 +14611,8 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2">
@@ -14654,8 +14651,8 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2">
@@ -14694,8 +14691,8 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2">
@@ -15440,10 +15437,10 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="8"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
@@ -15482,8 +15479,8 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2">
@@ -15522,8 +15519,8 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2">
@@ -15562,8 +15559,8 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2">
@@ -15602,8 +15599,8 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2">
@@ -15642,8 +15639,8 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2">
@@ -15682,8 +15679,8 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2">
@@ -16466,10 +16463,10 @@
       <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="8" t="s">
+      <c r="N56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="8"/>
+      <c r="O56" s="18"/>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
@@ -16508,8 +16505,8 @@
       <c r="L57" s="1">
         <v>0</v>
       </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
@@ -16548,8 +16545,8 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
@@ -16588,8 +16585,8 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
@@ -16628,8 +16625,8 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
@@ -16668,8 +16665,8 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
@@ -35541,15 +35538,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86D3CB2-5143-495E-9B0E-27B30442C8E7}">
-  <dimension ref="B1:S353"/>
+  <dimension ref="B1:Y353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:25">
       <c r="L1" t="s">
         <v>3</v>
       </c>
@@ -35569,7 +35566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:25">
       <c r="L2" s="1">
         <v>32000.04</v>
       </c>
@@ -35589,20 +35586,20 @@
         <v>334.03</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="2:25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
       <c r="L3" s="1">
         <v>20249.04</v>
       </c>
@@ -35622,16 +35619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+    <row r="4" spans="2:25">
+      <c r="B4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="L4" s="1">
         <v>20148.96</v>
       </c>
@@ -35651,18 +35641,12 @@
         <v>1262.08</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B5" s="13"/>
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="14"/>
       <c r="L5" s="1">
         <v>30999.96</v>
       </c>
@@ -35682,26 +35666,24 @@
         <v>2381.73</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="15"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="2:25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="14"/>
       <c r="L6" s="1">
         <v>21309.96</v>
       </c>
@@ -35721,26 +35703,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="15"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B7" s="13"/>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>202</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>7484006.280000004</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7">
         <v>37049.536039603983</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7">
         <v>248198564.80716625</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="14"/>
       <c r="L7" s="1">
         <v>32873.519999999997</v>
       </c>
@@ -35760,26 +35740,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
+    <row r="8" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B8" s="13"/>
+      <c r="C8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
         <v>350</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>13401187.080000008</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>38289.105942857168</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>226798333.71419737</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="14"/>
       <c r="L8" s="1">
         <v>30713.88</v>
       </c>
@@ -35798,17 +35776,15 @@
       <c r="S8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="13"/>
+      <c r="J9" s="14"/>
       <c r="L9" s="1">
         <v>54787.68</v>
       </c>
@@ -35827,17 +35803,15 @@
       <c r="S9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B10" s="13"/>
+      <c r="J10" s="14"/>
       <c r="L10" s="1">
         <v>44795.88</v>
       </c>
@@ -35856,19 +35830,18 @@
       <c r="S10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B11" s="13"/>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="14"/>
       <c r="L11" s="1">
         <v>37900.080000000002</v>
       </c>
@@ -35888,30 +35861,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="2:25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="17"/>
+      <c r="J12" s="14"/>
       <c r="L12" s="1">
         <v>45953.04</v>
       </c>
@@ -35931,30 +35904,30 @@
         <v>779.13</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="15"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="2:25">
+      <c r="B13" s="13"/>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>196798771.07824707</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>196798771.07824707</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13">
         <v>0.83880098833544636</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>0.36014129148274299</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>3.8584216540940601</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="14"/>
       <c r="L13" s="1">
         <v>28509.119999999999</v>
       </c>
@@ -35974,24 +35947,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="15"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="2:25">
+      <c r="B14" s="13"/>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>129040529992.49652</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>550</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14">
         <v>234619145.44090277</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="14"/>
       <c r="L14" s="1">
         <v>68798.759999999995</v>
       </c>
@@ -36011,16 +35981,9 @@
         <v>645.48</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="17"/>
+    <row r="15" spans="2:25">
+      <c r="B15" s="13"/>
+      <c r="J15" s="14"/>
       <c r="L15" s="1">
         <v>29241.360000000001</v>
       </c>
@@ -36040,22 +36003,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1">
+      <c r="B16" s="13"/>
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>129237328763.57477</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>551</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="17"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="14"/>
       <c r="L16" s="1">
         <v>32948.400000000001</v>
       </c>
@@ -36076,15 +36039,15 @@
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
       <c r="L17" s="1">
         <v>27704.76</v>
       </c>
@@ -36165,15 +36128,15 @@
       </c>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
       <c r="L21" s="1">
         <v>41032.44</v>
       </c>
@@ -36194,14 +36157,14 @@
       </c>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="15"/>
+      <c r="B22" s="13"/>
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="14"/>
       <c r="L22" s="1">
         <v>30706.68</v>
       </c>
@@ -36222,8 +36185,8 @@
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="15"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="J23" s="14"/>
       <c r="L23" s="1">
         <v>26664.959999999999</v>
       </c>
@@ -36244,11 +36207,11 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="15"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="14"/>
       <c r="L24" s="1">
         <v>30816.959999999999</v>
       </c>
@@ -36269,23 +36232,23 @@
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="15"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="17"/>
+      <c r="J25" s="14"/>
       <c r="L25" s="1">
         <v>33489.360000000001</v>
       </c>
@@ -36306,23 +36269,23 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="15"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>204</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26">
         <v>349924</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>1715.313725490196</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26">
         <v>12457699.615377186</v>
       </c>
-      <c r="J26" s="17"/>
+      <c r="J26" s="14"/>
       <c r="L26" s="1">
         <v>31874.639999999999</v>
       </c>
@@ -36343,23 +36306,23 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="B27" s="13"/>
+      <c r="C27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
         <v>352</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>725853</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>2062.0823863636365</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>16542042.731084889</v>
       </c>
-      <c r="J27" s="17"/>
+      <c r="J27" s="14"/>
       <c r="L27" s="1">
         <v>60290.400000000001</v>
       </c>
@@ -36380,8 +36343,8 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="15"/>
-      <c r="J28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="J28" s="14"/>
       <c r="L28" s="1">
         <v>29429.88</v>
       </c>
@@ -36402,8 +36365,8 @@
       </c>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="15"/>
-      <c r="J29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="J29" s="14"/>
       <c r="L29" s="1">
         <v>32057.52</v>
       </c>
@@ -36424,11 +36387,11 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B30" s="15"/>
+      <c r="B30" s="13"/>
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="17"/>
+      <c r="J30" s="14"/>
       <c r="L30" s="1">
         <v>30171.72</v>
       </c>
@@ -36449,29 +36412,29 @@
       </c>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="15"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="17"/>
+      <c r="J31" s="14"/>
       <c r="L31" s="1">
         <v>33835.440000000002</v>
       </c>
@@ -36492,29 +36455,29 @@
       </c>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="15"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>15530224.07736969</v>
       </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>15530224.07736969</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32">
         <v>1.0322217924372072</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32">
         <v>0.31008089512063114</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32">
         <v>3.8582987812184686</v>
       </c>
-      <c r="J32" s="17"/>
+      <c r="J32" s="14"/>
       <c r="L32" s="1">
         <v>24657.84</v>
       </c>
@@ -36535,23 +36498,20 @@
       </c>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="15"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>8335170020.5323811</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33">
         <v>554</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33">
         <v>15045433.25005845</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="14"/>
       <c r="L33" s="1">
         <v>38571.72</v>
       </c>
@@ -36572,15 +36532,8 @@
       </c>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="15"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="17"/>
+      <c r="B34" s="13"/>
+      <c r="J34" s="14"/>
       <c r="L34" s="1">
         <v>40277.279999999999</v>
       </c>
@@ -36601,21 +36554,21 @@
       </c>
     </row>
     <row r="35" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>8350700244.6097507</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>555</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="17"/>
       <c r="L35" s="1">
         <v>31272.720000000001</v>
       </c>
@@ -36696,19 +36649,19 @@
       </c>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
       <c r="L39" s="1">
         <v>29968.92</v>
       </c>
@@ -36729,15 +36682,8 @@
       </c>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="J40" s="14"/>
       <c r="L40" s="1">
         <v>29618.04</v>
       </c>
@@ -36758,17 +36704,11 @@
       </c>
     </row>
     <row r="41" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B41" s="15"/>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="14"/>
       <c r="L41" s="1">
         <v>31409.64</v>
       </c>
@@ -36789,25 +36729,23 @@
       </c>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="15"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
+      <c r="J42" s="14"/>
       <c r="L42" s="1">
         <v>30458.16</v>
       </c>
@@ -36828,25 +36766,23 @@
       </c>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="15"/>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43">
         <v>204</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43">
         <v>255178.0400000001</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43">
         <v>1250.8727450980398</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43">
         <v>13486808.713089963</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="14"/>
       <c r="L43" s="1">
         <v>39740.04</v>
       </c>
@@ -36867,25 +36803,23 @@
       </c>
     </row>
     <row r="44" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B44" s="15"/>
-      <c r="C44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="B44" s="13"/>
+      <c r="C44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="8">
         <v>352</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <v>290108.41000000009</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <v>824.17161931818202</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="8">
         <v>11211558.288280277</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="14"/>
       <c r="L44" s="1">
         <v>32873.519999999997</v>
       </c>
@@ -36906,15 +36840,8 @@
       </c>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
+      <c r="B45" s="13"/>
+      <c r="J45" s="14"/>
       <c r="L45" s="1">
         <v>32995.68</v>
       </c>
@@ -36935,15 +36862,8 @@
       </c>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
+      <c r="B46" s="13"/>
+      <c r="J46" s="14"/>
       <c r="L46" s="1">
         <v>35540.04</v>
       </c>
@@ -36964,17 +36884,11 @@
       </c>
     </row>
     <row r="47" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B47" s="15"/>
-      <c r="C47" s="16" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="14"/>
       <c r="L47" s="1">
         <v>42527.28</v>
       </c>
@@ -36995,29 +36909,29 @@
       </c>
     </row>
     <row r="48" spans="2:19">
-      <c r="B48" s="15"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="17"/>
+      <c r="J48" s="14"/>
       <c r="L48" s="1">
         <v>93796.2</v>
       </c>
@@ -37038,29 +36952,29 @@
       </c>
     </row>
     <row r="49" spans="2:19">
-      <c r="B49" s="15"/>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49">
         <v>23515034.30585289</v>
       </c>
-      <c r="E49" s="9">
-        <v>1</v>
-      </c>
-      <c r="F49" s="9">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>23515034.30585289</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49">
         <v>1.9522215690340547</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49">
         <v>0.16290699502029996</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49">
         <v>3.8582987812184686</v>
       </c>
-      <c r="J49" s="17"/>
+      <c r="J49" s="14"/>
       <c r="L49" s="1">
         <v>25906.560000000001</v>
       </c>
@@ -37081,23 +36995,20 @@
       </c>
     </row>
     <row r="50" spans="2:19">
-      <c r="B50" s="15"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50">
         <v>6673079127.9436226</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50">
         <v>554</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50">
         <v>12045269.18401376</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="14"/>
       <c r="L50" s="1">
         <v>34394.400000000001</v>
       </c>
@@ -37118,15 +37029,8 @@
       </c>
     </row>
     <row r="51" spans="2:19">
-      <c r="B51" s="15"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="17"/>
+      <c r="B51" s="13"/>
+      <c r="J51" s="14"/>
       <c r="L51" s="1">
         <v>20148.96</v>
       </c>
@@ -37147,21 +37051,21 @@
       </c>
     </row>
     <row r="52" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B52" s="15"/>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>6696594162.2494755</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>555</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="17"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="14"/>
       <c r="L52" s="1">
         <v>30686.16</v>
       </c>
@@ -37182,15 +37086,15 @@
       </c>
     </row>
     <row r="53" spans="2:19">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
       <c r="L53" s="1">
         <v>42230.879999999997</v>
       </c>
